--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,15 +43,15 @@
     <t>evil</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
@@ -61,18 +61,12 @@
     <t>addicted</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -88,13 +82,13 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
     <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>social</t>
@@ -458,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,10 +460,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -548,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -577,13 +571,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -595,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <v>0.86</v>
@@ -627,13 +621,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9038461538461539</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C5">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -645,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>0.8333333333333334</v>
@@ -677,13 +671,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8666666666666667</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -695,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6">
         <v>0.631578947368421</v>
@@ -727,13 +721,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8636363636363636</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -745,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.6</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -769,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -777,13 +771,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7368421052631579</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -795,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.4827586206896552</v>
+        <v>0.5</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -819,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -827,13 +821,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.65</v>
+        <v>0.675</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -845,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9">
+        <v>0.4827586206896552</v>
+      </c>
+      <c r="L9">
         <v>14</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9">
-        <v>0.4533333333333333</v>
-      </c>
-      <c r="L9">
-        <v>34</v>
-      </c>
       <c r="M9">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -869,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -877,13 +871,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4642857142857143</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -895,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.04098360655737705</v>
+        <v>0.03825136612021858</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -919,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -927,13 +921,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.463768115942029</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="C11">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -945,59 +939,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.4042553191489361</v>
-      </c>
-      <c r="C12">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>19</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.3428571428571429</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
